--- a/LDM/data/TC001.xlsx
+++ b/LDM/data/TC001.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="4050"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>UserName</t>
   </si>
@@ -24,29 +24,125 @@
     <t>Password</t>
   </si>
   <si>
-    <t>DemoCSR</t>
+    <t>password-1</t>
   </si>
   <si>
     <t>administrator</t>
   </si>
   <si>
-    <t>password-1</t>
-  </si>
-  <si>
-    <t>passw</t>
+    <t>ReceivedBy</t>
+  </si>
+  <si>
+    <t>anu c</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>BroughtBy</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>NoofSample</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>ESaveAnd</t>
+  </si>
+  <si>
+    <t>CVR Labs Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Aaron Mendez</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>646810-Philadelphia Housing Authority</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>New Description</t>
+  </si>
+  <si>
+    <t>New Comment</t>
+  </si>
+  <si>
+    <t>Save and Close</t>
+  </si>
+  <si>
+    <t>TestDescp</t>
+  </si>
+  <si>
+    <t>Blake McElmurry</t>
+  </si>
+  <si>
+    <t>Rajesh Konduru</t>
+  </si>
+  <si>
+    <t>AKRK Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>New Description1</t>
+  </si>
+  <si>
+    <t>New Description@1</t>
+  </si>
+  <si>
+    <t>New Comment@1</t>
+  </si>
+  <si>
+    <t>New CommentSS</t>
+  </si>
+  <si>
+    <t>EOI warehouse samples</t>
+  </si>
+  <si>
+    <t>Environmental Operations, Inc.</t>
+  </si>
+  <si>
+    <t>Vignesh  A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baltimore City Project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -58,7 +154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFE0EDF8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -72,40 +168,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC6C6C6"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -398,62 +488,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/LDM/data/TC001.xlsx
+++ b/LDM/data/TC001.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>UserName</t>
   </si>
@@ -24,54 +24,39 @@
     <t>Password</t>
   </si>
   <si>
+    <t>ReceivedBy</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>BroughtBy</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>NoofSample</t>
+  </si>
+  <si>
+    <t>TestDescp</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>ESaveAnd</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
     <t>password-1</t>
   </si>
   <si>
-    <t>administrator</t>
-  </si>
-  <si>
-    <t>ReceivedBy</t>
-  </si>
-  <si>
-    <t>anu c</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>BroughtBy</t>
-  </si>
-  <si>
-    <t>ProjectID</t>
-  </si>
-  <si>
-    <t>NoofSample</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>ESaveAnd</t>
-  </si>
-  <si>
-    <t>CVR Labs Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Aaron Mendez</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>646810-Philadelphia Housing Authority</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>New Description</t>
   </si>
   <si>
@@ -81,56 +66,23 @@
     <t>Save and Close</t>
   </si>
   <si>
-    <t>TestDescp</t>
-  </si>
-  <si>
-    <t>Blake McElmurry</t>
-  </si>
-  <si>
-    <t>Rajesh Konduru</t>
-  </si>
-  <si>
-    <t>AKRK Technologies, Inc.</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>New Description1</t>
-  </si>
-  <si>
-    <t>New Description@1</t>
-  </si>
-  <si>
-    <t>New Comment@1</t>
-  </si>
-  <si>
-    <t>New CommentSS</t>
-  </si>
-  <si>
-    <t>EOI warehouse samples</t>
-  </si>
-  <si>
-    <t>Environmental Operations, Inc.</t>
-  </si>
-  <si>
-    <t>Vignesh  A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Baltimore City Project</t>
+    <t>Rajivi vasagam</t>
+  </si>
+  <si>
+    <t>CVR Energy</t>
+  </si>
+  <si>
+    <t>Mike Facker</t>
+  </si>
+  <si>
+    <t>vinoth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,39 +91,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF4A4A4A"/>
-      <name val="Segoe UI"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0EDF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFC6C6C6"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -182,11 +133,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,157 +437,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
